--- a/test data/PRERATE_UPDATE.xlsx
+++ b/test data/PRERATE_UPDATE.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5194105\Documents\Eclipse Projects\Master GUI\test data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4FADFB-C16F-4B25-A48D-F009ACE014FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrerateUpdate" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PrerateUpdate!$A$1:$Q$103</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="40">
   <si>
     <t>N</t>
   </si>
@@ -134,18 +136,6 @@
     <t>178109</t>
   </si>
   <si>
-    <t>539646415820</t>
-  </si>
-  <si>
-    <t>539140308168</t>
-  </si>
-  <si>
-    <t>540303677035</t>
-  </si>
-  <si>
-    <t>539303559522</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -156,16 +146,32 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Try this manually</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,9 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD64"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -571,8 +580,8 @@
       <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
+      <c r="F2" s="2">
+        <v>291528794890</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -601,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -612,8 +621,8 @@
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
+      <c r="F3" s="2">
+        <v>473392277470</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
@@ -622,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>5</v>
@@ -642,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -653,17 +662,17 @@
       <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2">
+        <v>331152789045</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
@@ -683,7 +692,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -694,8 +703,8 @@
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
+      <c r="F5" s="2">
+        <v>357800228501</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -704,13 +713,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -720,22 +729,250 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6"/>
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>329664665487</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7"/>
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>137420692353</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8"/>
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>566080141096</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9"/>
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>618271341060</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10"/>
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>506398357897</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11"/>
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <v>127535060150</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12"/>
@@ -1014,7 +1251,527 @@
       <c r="B103"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053FF7E5-77EB-4269-9E5B-35E1DB1650B0}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>291528794890</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>473392277470</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>331152789045</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>357800228501</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>329664665487</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
+        <v>137420692353</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>566080141096</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>618271341060</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>506398357897</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <v>127535060150</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test data/PRERATE_UPDATE.xlsx
+++ b/test data/PRERATE_UPDATE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>N</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Try this manually</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -715,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -768,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>

--- a/test data/PRERATE_UPDATE.xlsx
+++ b/test data/PRERATE_UPDATE.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815AF196-AA68-42BF-83F6-2E391FFDEA5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11160" windowWidth="20580" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="PrerateUpdate" sheetId="1" r:id="rId1"/>
+    <sheet name="PrerateUpdate" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PrerateUpdate!$A$1:$Q$38</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">PrerateUpdate!$A$1:$Q$148</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Sheet1!$A$1:$Q$59</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="259">
   <si>
     <t>N</t>
   </si>
@@ -750,29 +746,69 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Technical Error Occurred in Edits; Try again ,4364</t>
+    <t>Override Disabled.</t>
+  </si>
+  <si>
+    <t>Failed selecting dropdown menu...</t>
+  </si>
+  <si>
+    <t>Technical Error Occurred in Edits; Try again ,3334</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>178612</t>
+  </si>
+  <si>
+    <t>188124</t>
+  </si>
+  <si>
+    <t>459641745405</t>
+  </si>
+  <si>
+    <t>5194105</t>
+  </si>
+  <si>
+    <t>178324</t>
+  </si>
+  <si>
+    <t>459641995200</t>
+  </si>
+  <si>
+    <t>459642246530</t>
+  </si>
+  <si>
+    <t>459642246551</t>
+  </si>
+  <si>
+    <t>177805</t>
+  </si>
+  <si>
+    <t>177755</t>
+  </si>
+  <si>
+    <t>794821217622</t>
+  </si>
+  <si>
+    <t>794821217688</t>
+  </si>
+  <si>
+    <t>178132</t>
+  </si>
+  <si>
+    <t>794821218055</t>
   </si>
   <si>
     <t>Failed Somewhere... No Error Found Tho</t>
-  </si>
-  <si>
-    <t>Override Disabled.</t>
-  </si>
-  <si>
-    <t>Make sure to add Charge Codes for each Charge Amount entered!</t>
-  </si>
-  <si>
-    <t>Sum of Charge Details does not equal Payment Total Amount</t>
-  </si>
-  <si>
-    <t>Failed selecting dropdown menu...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,17 +835,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -826,10 +862,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -993,21 +1029,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1024,7 +1060,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1076,43 +1112,771 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="18" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,12 +1929,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1206,12 +1970,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1247,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1294,12 +2058,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1341,12 +2105,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1388,12 +2152,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -1429,12 +2193,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1476,12 +2240,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1517,12 +2281,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -1558,7 +2322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1640,12 +2404,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -1681,12 +2445,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -1722,12 +2486,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -1766,12 +2530,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -1807,12 +2571,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1860,12 +2624,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -1913,12 +2677,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -1954,12 +2718,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -1995,12 +2759,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -2042,12 +2806,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -2089,12 +2853,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -2130,12 +2894,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -2171,12 +2935,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -2212,12 +2976,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -2259,12 +3023,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -2300,12 +3064,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -2347,11 +3111,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2392,12 +3158,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -2433,12 +3199,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -2480,12 +3246,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row hidden="1" r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -2521,7 +3287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -2562,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2603,12 +3369,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2644,12 +3410,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2685,7 +3451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -2726,12 +3492,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2767,12 +3533,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2808,12 +3574,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -2849,12 +3615,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2890,12 +3656,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -2931,12 +3697,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -2972,12 +3738,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -3013,12 +3779,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -3054,12 +3820,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row hidden="1" r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -3095,7 +3861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -3136,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -3177,12 +3943,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -3218,12 +3984,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -3259,12 +4025,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -3300,12 +4066,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -3341,12 +4107,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -3382,12 +4148,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -3423,7 +4189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -3464,12 +4230,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -3505,12 +4271,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row hidden="1" r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>33</v>
@@ -3552,12 +4318,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -3599,12 +4365,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -3647,7 +4413,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <autoFilter ref="A1:Q59">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Override Disabled."/>
+        <filter val="Passed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/test data/PRERATE_UPDATE.xlsx
+++ b/test data/PRERATE_UPDATE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="526">
   <si>
     <t>N</t>
   </si>
@@ -764,43 +764,844 @@
     <t>188124</t>
   </si>
   <si>
-    <t>459641745405</t>
-  </si>
-  <si>
-    <t>5194105</t>
-  </si>
-  <si>
-    <t>178324</t>
-  </si>
-  <si>
-    <t>459641995200</t>
-  </si>
-  <si>
-    <t>459642246530</t>
-  </si>
-  <si>
-    <t>459642246551</t>
-  </si>
-  <si>
-    <t>177805</t>
-  </si>
-  <si>
-    <t>177755</t>
-  </si>
-  <si>
-    <t>794821217622</t>
-  </si>
-  <si>
-    <t>794821217688</t>
-  </si>
-  <si>
-    <t>178132</t>
-  </si>
-  <si>
-    <t>794821218055</t>
-  </si>
-  <si>
-    <t>Failed Somewhere... No Error Found Tho</t>
+    <t>458517435870</t>
+  </si>
+  <si>
+    <t>794822866851</t>
+  </si>
+  <si>
+    <t>460192249555</t>
+  </si>
+  <si>
+    <t>794822869276</t>
+  </si>
+  <si>
+    <t>460192249670</t>
+  </si>
+  <si>
+    <t>460169696233</t>
+  </si>
+  <si>
+    <t>459514627624</t>
+  </si>
+  <si>
+    <t>794822870501</t>
+  </si>
+  <si>
+    <t>123625</t>
+  </si>
+  <si>
+    <t>794822871519</t>
+  </si>
+  <si>
+    <t>2039.28</t>
+  </si>
+  <si>
+    <t>39.28</t>
+  </si>
+  <si>
+    <t>794822871655</t>
+  </si>
+  <si>
+    <t>126316</t>
+  </si>
+  <si>
+    <t>794822873430</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>26000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>460192250776</t>
+  </si>
+  <si>
+    <t>129708</t>
+  </si>
+  <si>
+    <t>794822874470</t>
+  </si>
+  <si>
+    <t>165.37</t>
+  </si>
+  <si>
+    <t>65.37</t>
+  </si>
+  <si>
+    <t>129710</t>
+  </si>
+  <si>
+    <t>794822874551</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>129756</t>
+  </si>
+  <si>
+    <t>794822874610</t>
+  </si>
+  <si>
+    <t>314.94</t>
+  </si>
+  <si>
+    <t>241.95</t>
+  </si>
+  <si>
+    <t>22.99</t>
+  </si>
+  <si>
+    <t>129758</t>
+  </si>
+  <si>
+    <t>460192253411</t>
+  </si>
+  <si>
+    <t>459649499772</t>
+  </si>
+  <si>
+    <t>460192251419</t>
+  </si>
+  <si>
+    <t>137861</t>
+  </si>
+  <si>
+    <t>794822890650</t>
+  </si>
+  <si>
+    <t>1221.91</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>221.91</t>
+  </si>
+  <si>
+    <t>794822627583</t>
+  </si>
+  <si>
+    <t>138309</t>
+  </si>
+  <si>
+    <t>460220395322</t>
+  </si>
+  <si>
+    <t>151.06</t>
+  </si>
+  <si>
+    <t>51.06</t>
+  </si>
+  <si>
+    <t>794822891359</t>
+  </si>
+  <si>
+    <t>794822913894</t>
+  </si>
+  <si>
+    <t>145441</t>
+  </si>
+  <si>
+    <t>794823109245</t>
+  </si>
+  <si>
+    <t>704.1</t>
+  </si>
+  <si>
+    <t>304.1</t>
+  </si>
+  <si>
+    <t>145859</t>
+  </si>
+  <si>
+    <t>794822918289</t>
+  </si>
+  <si>
+    <t>146109</t>
+  </si>
+  <si>
+    <t>794822921068</t>
+  </si>
+  <si>
+    <t>53000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>459644027760</t>
+  </si>
+  <si>
+    <t>146452</t>
+  </si>
+  <si>
+    <t>794822922877</t>
+  </si>
+  <si>
+    <t>49000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>794822927673</t>
+  </si>
+  <si>
+    <t>794822927938</t>
+  </si>
+  <si>
+    <t>460278245401</t>
+  </si>
+  <si>
+    <t>149353</t>
+  </si>
+  <si>
+    <t>794822928636</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>150745</t>
+  </si>
+  <si>
+    <t>794822930810</t>
+  </si>
+  <si>
+    <t>243.17</t>
+  </si>
+  <si>
+    <t>165.81</t>
+  </si>
+  <si>
+    <t>27.36</t>
+  </si>
+  <si>
+    <t>459514631454</t>
+  </si>
+  <si>
+    <t>158898</t>
+  </si>
+  <si>
+    <t>794822940133</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>164686</t>
+  </si>
+  <si>
+    <t>794822941471</t>
+  </si>
+  <si>
+    <t>246.16</t>
+  </si>
+  <si>
+    <t>46.16</t>
+  </si>
+  <si>
+    <t>165807</t>
+  </si>
+  <si>
+    <t>794822942088</t>
+  </si>
+  <si>
+    <t>78.31</t>
+  </si>
+  <si>
+    <t>38.31</t>
+  </si>
+  <si>
+    <t>794823131475</t>
+  </si>
+  <si>
+    <t>794822601995</t>
+  </si>
+  <si>
+    <t>459514632347</t>
+  </si>
+  <si>
+    <t>172214</t>
+  </si>
+  <si>
+    <t>794822552158</t>
+  </si>
+  <si>
+    <t>794822946543</t>
+  </si>
+  <si>
+    <t>459514632715</t>
+  </si>
+  <si>
+    <t>459514632726</t>
+  </si>
+  <si>
+    <t>459514632737</t>
+  </si>
+  <si>
+    <t>459514632748</t>
+  </si>
+  <si>
+    <t>794822947491</t>
+  </si>
+  <si>
+    <t>459436147197</t>
+  </si>
+  <si>
+    <t>176940</t>
+  </si>
+  <si>
+    <t>794822947594</t>
+  </si>
+  <si>
+    <t>176965</t>
+  </si>
+  <si>
+    <t>459641746607</t>
+  </si>
+  <si>
+    <t>177013</t>
+  </si>
+  <si>
+    <t>459644027082</t>
+  </si>
+  <si>
+    <t>548.46</t>
+  </si>
+  <si>
+    <t>476.92</t>
+  </si>
+  <si>
+    <t>71.54</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>459436147201</t>
+  </si>
+  <si>
+    <t>177053</t>
+  </si>
+  <si>
+    <t>459642256688</t>
+  </si>
+  <si>
+    <t>459642256703</t>
+  </si>
+  <si>
+    <t>177365</t>
+  </si>
+  <si>
+    <t>459642255317</t>
+  </si>
+  <si>
+    <t>177367</t>
+  </si>
+  <si>
+    <t>794822947892</t>
+  </si>
+  <si>
+    <t>177373</t>
+  </si>
+  <si>
+    <t>459869245627</t>
+  </si>
+  <si>
+    <t>794822947962</t>
+  </si>
+  <si>
+    <t>177575</t>
+  </si>
+  <si>
+    <t>794822948020</t>
+  </si>
+  <si>
+    <t>177577</t>
+  </si>
+  <si>
+    <t>794822948031</t>
+  </si>
+  <si>
+    <t>587.46</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>87.46</t>
+  </si>
+  <si>
+    <t>177594</t>
+  </si>
+  <si>
+    <t>794822948064</t>
+  </si>
+  <si>
+    <t>459644035665</t>
+  </si>
+  <si>
+    <t>177611</t>
+  </si>
+  <si>
+    <t>794822948101</t>
+  </si>
+  <si>
+    <t>177703</t>
+  </si>
+  <si>
+    <t>794822948351</t>
+  </si>
+  <si>
+    <t>177774</t>
+  </si>
+  <si>
+    <t>794822948400</t>
+  </si>
+  <si>
+    <t>459644025436</t>
+  </si>
+  <si>
+    <t>177953</t>
+  </si>
+  <si>
+    <t>794822948557</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>178070</t>
+  </si>
+  <si>
+    <t>794822948590</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>178284</t>
+  </si>
+  <si>
+    <t>794822948741</t>
+  </si>
+  <si>
+    <t>178295</t>
+  </si>
+  <si>
+    <t>794822948752</t>
+  </si>
+  <si>
+    <t>500.79</t>
+  </si>
+  <si>
+    <t>300.79</t>
+  </si>
+  <si>
+    <t>178325</t>
+  </si>
+  <si>
+    <t>794822948774</t>
+  </si>
+  <si>
+    <t>26105.7</t>
+  </si>
+  <si>
+    <t>9789.6</t>
+  </si>
+  <si>
+    <t>3263.2</t>
+  </si>
+  <si>
+    <t>13052.9</t>
+  </si>
+  <si>
+    <t>178331</t>
+  </si>
+  <si>
+    <t>794822948796</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>178332</t>
+  </si>
+  <si>
+    <t>794822948811</t>
+  </si>
+  <si>
+    <t>178370</t>
+  </si>
+  <si>
+    <t>794822948877</t>
+  </si>
+  <si>
+    <t>178410</t>
+  </si>
+  <si>
+    <t>794822948947</t>
+  </si>
+  <si>
+    <t>794822949050</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>179669</t>
+  </si>
+  <si>
+    <t>794823109598</t>
+  </si>
+  <si>
+    <t>179701</t>
+  </si>
+  <si>
+    <t>794822949623</t>
+  </si>
+  <si>
+    <t>151.41</t>
+  </si>
+  <si>
+    <t>113.55</t>
+  </si>
+  <si>
+    <t>18.93</t>
+  </si>
+  <si>
+    <t>794822702652</t>
+  </si>
+  <si>
+    <t>179761</t>
+  </si>
+  <si>
+    <t>459642256725</t>
+  </si>
+  <si>
+    <t>794822663824</t>
+  </si>
+  <si>
+    <t>179821</t>
+  </si>
+  <si>
+    <t>459644032953</t>
+  </si>
+  <si>
+    <t>179834</t>
+  </si>
+  <si>
+    <t>459644022507</t>
+  </si>
+  <si>
+    <t>186661</t>
+  </si>
+  <si>
+    <t>794822950329</t>
+  </si>
+  <si>
+    <t>188047</t>
+  </si>
+  <si>
+    <t>794822952468</t>
+  </si>
+  <si>
+    <t>188057</t>
+  </si>
+  <si>
+    <t>460192252551</t>
+  </si>
+  <si>
+    <t>794823131659</t>
+  </si>
+  <si>
+    <t>188076</t>
+  </si>
+  <si>
+    <t>794822952527</t>
+  </si>
+  <si>
+    <t>188084</t>
+  </si>
+  <si>
+    <t>794822952549</t>
+  </si>
+  <si>
+    <t>188089</t>
+  </si>
+  <si>
+    <t>794822952593</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>188101</t>
+  </si>
+  <si>
+    <t>794822952630</t>
+  </si>
+  <si>
+    <t>794822952652</t>
+  </si>
+  <si>
+    <t>188128</t>
+  </si>
+  <si>
+    <t>794822952711</t>
+  </si>
+  <si>
+    <t>459649498754</t>
+  </si>
+  <si>
+    <t>188178</t>
+  </si>
+  <si>
+    <t>794822952733</t>
+  </si>
+  <si>
+    <t>188197</t>
+  </si>
+  <si>
+    <t>794822952755</t>
+  </si>
+  <si>
+    <t>794822952847</t>
+  </si>
+  <si>
+    <t>459649498206</t>
+  </si>
+  <si>
+    <t>459641746283</t>
+  </si>
+  <si>
+    <t>188390</t>
+  </si>
+  <si>
+    <t>794822952869</t>
+  </si>
+  <si>
+    <t>188392</t>
+  </si>
+  <si>
+    <t>794822952917</t>
+  </si>
+  <si>
+    <t>459413146465</t>
+  </si>
+  <si>
+    <t>188400</t>
+  </si>
+  <si>
+    <t>794822952940</t>
+  </si>
+  <si>
+    <t>460225245430</t>
+  </si>
+  <si>
+    <t>188401</t>
+  </si>
+  <si>
+    <t>794822952961</t>
+  </si>
+  <si>
+    <t>459644757831</t>
+  </si>
+  <si>
+    <t>188403</t>
+  </si>
+  <si>
+    <t>794822952983</t>
+  </si>
+  <si>
+    <t>459641746294</t>
+  </si>
+  <si>
+    <t>794822953030</t>
+  </si>
+  <si>
+    <t>188416</t>
+  </si>
+  <si>
+    <t>794822953063</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>459649498044</t>
+  </si>
+  <si>
+    <t>459436646470</t>
+  </si>
+  <si>
+    <t>188771</t>
+  </si>
+  <si>
+    <t>794822953270</t>
+  </si>
+  <si>
+    <t>188775</t>
+  </si>
+  <si>
+    <t>794822953280</t>
+  </si>
+  <si>
+    <t>188782</t>
+  </si>
+  <si>
+    <t>458517440515</t>
+  </si>
+  <si>
+    <t>188785</t>
+  </si>
+  <si>
+    <t>459644023525</t>
+  </si>
+  <si>
+    <t>458517440526</t>
+  </si>
+  <si>
+    <t>188788</t>
+  </si>
+  <si>
+    <t>794822953410</t>
+  </si>
+  <si>
+    <t>459641746170</t>
+  </si>
+  <si>
+    <t>188793</t>
+  </si>
+  <si>
+    <t>459644023536</t>
+  </si>
+  <si>
+    <t>188794</t>
+  </si>
+  <si>
+    <t>794822953420</t>
+  </si>
+  <si>
+    <t>188797</t>
+  </si>
+  <si>
+    <t>794822953442</t>
+  </si>
+  <si>
+    <t>188800</t>
+  </si>
+  <si>
+    <t>794822953453</t>
+  </si>
+  <si>
+    <t>459413146487</t>
+  </si>
+  <si>
+    <t>188805</t>
+  </si>
+  <si>
+    <t>459443895535</t>
+  </si>
+  <si>
+    <t>794822953486</t>
+  </si>
+  <si>
+    <t>188817</t>
+  </si>
+  <si>
+    <t>794822953501</t>
+  </si>
+  <si>
+    <t>188919</t>
+  </si>
+  <si>
+    <t>458517435711</t>
+  </si>
+  <si>
+    <t>188925</t>
+  </si>
+  <si>
+    <t>794822953578</t>
+  </si>
+  <si>
+    <t>459644757864</t>
+  </si>
+  <si>
+    <t>794823109679</t>
+  </si>
+  <si>
+    <t>191337</t>
+  </si>
+  <si>
+    <t>458517435722</t>
+  </si>
+  <si>
+    <t>459644033114</t>
+  </si>
+  <si>
+    <t>460197749458</t>
+  </si>
+  <si>
+    <t>459241053252</t>
+  </si>
+  <si>
+    <t>79330</t>
+  </si>
+  <si>
+    <t>794823019806</t>
+  </si>
+  <si>
+    <t>86011</t>
+  </si>
+  <si>
+    <t>794823020008</t>
+  </si>
+  <si>
+    <t>458517448387</t>
+  </si>
+  <si>
+    <t>460169696450</t>
+  </si>
+  <si>
+    <t>99292</t>
+  </si>
+  <si>
+    <t>794823020410</t>
+  </si>
+  <si>
+    <t>187.1</t>
+  </si>
+  <si>
+    <t>80.3</t>
+  </si>
+  <si>
+    <t>13.25</t>
+  </si>
+  <si>
+    <t>93.55</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1924,7 @@
   <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,642 +2007,5675 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>525</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>246</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>243</v>
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>258</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>243</v>
+        <v>147</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>243</v>
+        <v>121</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>258</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>243</v>
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>525</v>
+      </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>243</v>
+        <v>153</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>243</v>
+        <v>159</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8"/>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>525</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>525</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>525</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>525</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="H76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="B9"/>
-      <c r="C9"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="H83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B84"/>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B85"/>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B86"/>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="C86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B87"/>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B88"/>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B89"/>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B90"/>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B91"/>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B92"/>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B93"/>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B94"/>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B95"/>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B96"/>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B97"/>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="C97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B98"/>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B99"/>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B100"/>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B101"/>
-    </row>
-    <row r="102" spans="2:2">
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B102"/>
-    </row>
-    <row r="103" spans="2:2">
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B103"/>
-    </row>
-    <row r="104" spans="2:2">
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B104"/>
-    </row>
-    <row r="105" spans="2:2">
+      <c r="C104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B105"/>
-    </row>
-    <row r="106" spans="2:2">
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B106"/>
-    </row>
-    <row r="107" spans="2:2">
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B107"/>
-    </row>
-    <row r="108" spans="2:2">
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B108"/>
-    </row>
-    <row r="109" spans="2:2">
+      <c r="C108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B109"/>
-    </row>
-    <row r="110" spans="2:2">
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B110"/>
-    </row>
-    <row r="111" spans="2:2">
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B111"/>
-    </row>
-    <row r="112" spans="2:2">
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B112"/>
-    </row>
-    <row r="113" spans="2:2">
+      <c r="C112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B113"/>
-    </row>
-    <row r="114" spans="2:2">
+      <c r="C113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B114"/>
-    </row>
-    <row r="115" spans="2:2">
+      <c r="C114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B115"/>
-    </row>
-    <row r="116" spans="2:2">
+      <c r="C115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B116"/>
-    </row>
-    <row r="117" spans="2:2">
+      <c r="C116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B117"/>
-    </row>
-    <row r="118" spans="2:2">
+      <c r="C117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B118"/>
-    </row>
-    <row r="119" spans="2:2">
+      <c r="C118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B119"/>
-    </row>
-    <row r="120" spans="2:2">
+      <c r="C119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B120"/>
-    </row>
-    <row r="121" spans="2:2">
+      <c r="C120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B121"/>
-    </row>
-    <row r="122" spans="2:2">
+      <c r="C121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B122"/>
-    </row>
-    <row r="123" spans="2:2">
+      <c r="C122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B123"/>
-    </row>
-    <row r="124" spans="2:2">
+      <c r="C123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B124"/>
-    </row>
-    <row r="125" spans="2:2">
+      <c r="C124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B125"/>
-    </row>
-    <row r="126" spans="2:2">
+      <c r="C125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B126"/>
-    </row>
-    <row r="127" spans="2:2">
+      <c r="C126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B127"/>
-    </row>
-    <row r="128" spans="2:2">
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B128"/>
-    </row>
-    <row r="129" spans="2:2">
+      <c r="C128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B129"/>
-    </row>
-    <row r="130" spans="2:2">
+      <c r="C129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B130"/>
-    </row>
-    <row r="131" spans="2:2">
+      <c r="C130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B131"/>
-    </row>
-    <row r="132" spans="2:2">
+      <c r="C131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B132"/>
-    </row>
-    <row r="133" spans="2:2">
+      <c r="C132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B133"/>
-    </row>
-    <row r="134" spans="2:2">
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B134"/>
-    </row>
-    <row r="135" spans="2:2">
+      <c r="C134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B135"/>
-    </row>
-    <row r="136" spans="2:2">
+      <c r="C135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B136"/>
-    </row>
-    <row r="137" spans="2:2">
+      <c r="C136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B137"/>
-    </row>
-    <row r="138" spans="2:2">
+      <c r="C137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B138"/>
-    </row>
-    <row r="139" spans="2:2">
+      <c r="C138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B139"/>
-    </row>
-    <row r="140" spans="2:2">
+      <c r="C139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B140"/>
-    </row>
-    <row r="141" spans="2:2">
+      <c r="C140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B141"/>
-    </row>
-    <row r="142" spans="2:2">
+      <c r="C141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:17">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:17">
       <c r="B144"/>
     </row>
     <row r="145" spans="2:2">

--- a/test data/PRERATE_UPDATE.xlsx
+++ b/test data/PRERATE_UPDATE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="528">
   <si>
     <t>N</t>
   </si>
@@ -1602,6 +1602,12 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Sum of Charge Details does not equal Payment Total Amount</t>
+  </si>
+  <si>
+    <t>Make sure to add Charge Codes for each Charge Amount entered!</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2053,9 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2100,9 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>525</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2147,9 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>525</v>
+      </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2229,9 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>525</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2276,9 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2317,9 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2399,9 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2420,6 +2440,9 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B12" t="s">
+        <v>525</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2458,6 +2481,9 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B13" t="s">
+        <v>525</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2563,9 @@
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>525</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2604,9 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>525</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2651,9 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>525</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2733,9 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="s">
+        <v>525</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2740,7 +2774,9 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>525</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2779,7 +2815,9 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>525</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +2856,9 @@
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>525</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +2897,9 @@
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="s">
+        <v>525</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2950,9 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2997,9 @@
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="s">
+        <v>525</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3079,9 @@
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="s">
+        <v>525</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3120,9 @@
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +3161,9 @@
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="s">
+        <v>525</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3247,9 @@
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="s">
+        <v>525</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3240,7 +3294,9 @@
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3341,9 @@
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="s">
+        <v>525</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3429,9 @@
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="s">
+        <v>525</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3416,7 +3476,9 @@
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="s">
+        <v>525</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3461,7 +3523,9 @@
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="s">
+        <v>525</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +3605,9 @@
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3592,7 +3658,9 @@
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="s">
+        <v>525</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3637,7 +3705,9 @@
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="s">
+        <v>525</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +3793,9 @@
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="s">
+        <v>240</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3834,9 @@
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B44"/>
+      <c r="B44" t="s">
+        <v>525</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3801,7 +3875,9 @@
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45"/>
+      <c r="B45" t="s">
+        <v>525</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3840,7 +3916,9 @@
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B46"/>
+      <c r="B46" t="s">
+        <v>525</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3879,7 +3957,9 @@
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B47"/>
+      <c r="B47" t="s">
+        <v>525</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3918,7 +3998,9 @@
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B48"/>
+      <c r="B48" t="s">
+        <v>525</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3963,7 +4045,9 @@
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="s">
+        <v>525</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
@@ -4008,7 +4092,9 @@
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="s">
+        <v>525</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
@@ -4053,7 +4139,9 @@
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B51"/>
+      <c r="B51" t="s">
+        <v>525</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4186,9 @@
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B52"/>
+      <c r="B52" t="s">
+        <v>525</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
       </c>
@@ -4143,7 +4233,9 @@
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B53"/>
+      <c r="B53" t="s">
+        <v>525</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
       </c>
@@ -4229,7 +4321,9 @@
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" t="s">
+        <v>525</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4368,9 @@
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" t="s">
+        <v>525</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
       </c>
@@ -4313,7 +4409,9 @@
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B57"/>
+      <c r="B57" t="s">
+        <v>525</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4450,9 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B58"/>
+      <c r="B58" t="s">
+        <v>525</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
       </c>
@@ -4391,7 +4491,9 @@
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +4532,9 @@
       <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="s">
+        <v>525</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4579,9 @@
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B61"/>
+      <c r="B61" t="s">
+        <v>525</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
@@ -4514,7 +4620,9 @@
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="s">
+        <v>525</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
       </c>
@@ -4553,7 +4661,9 @@
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B63"/>
+      <c r="B63" t="s">
+        <v>525</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
@@ -4592,7 +4702,9 @@
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B64"/>
+      <c r="B64" t="s">
+        <v>525</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
       </c>
@@ -4637,7 +4749,9 @@
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="s">
+        <v>525</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
       </c>
@@ -4715,7 +4829,9 @@
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B67"/>
+      <c r="B67" t="s">
+        <v>525</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
       </c>
@@ -4754,7 +4870,9 @@
       <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B68"/>
+      <c r="B68" t="s">
+        <v>525</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
       </c>
@@ -4793,7 +4911,9 @@
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69"/>
+      <c r="B69" t="s">
+        <v>525</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
@@ -4832,7 +4952,9 @@
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B70"/>
+      <c r="B70" t="s">
+        <v>525</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
       </c>
@@ -4871,7 +4993,9 @@
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="s">
+        <v>525</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
       </c>
@@ -4910,7 +5034,9 @@
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B72"/>
+      <c r="B72" t="s">
+        <v>525</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +5081,9 @@
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B73"/>
+      <c r="B73" t="s">
+        <v>525</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5128,9 @@
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="s">
+        <v>525</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5169,9 @@
       <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="s">
+        <v>525</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +5210,9 @@
       <c r="A76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="s">
+        <v>525</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +5251,9 @@
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B77"/>
+      <c r="B77" t="s">
+        <v>525</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5292,9 @@
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B78"/>
+      <c r="B78" t="s">
+        <v>525</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>0</v>
       </c>
@@ -5201,7 +5339,9 @@
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B79"/>
+      <c r="B79" t="s">
+        <v>525</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>0</v>
       </c>
@@ -5246,7 +5386,9 @@
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B80"/>
+      <c r="B80" t="s">
+        <v>525</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
       </c>
@@ -5285,7 +5427,9 @@
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B81"/>
+      <c r="B81" t="s">
+        <v>525</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>0</v>
       </c>
@@ -5324,7 +5468,9 @@
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B82"/>
+      <c r="B82" t="s">
+        <v>525</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5509,9 @@
       <c r="A83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="s">
+        <v>525</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>0</v>
       </c>
@@ -5402,7 +5550,9 @@
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="s">
+        <v>525</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>0</v>
       </c>
@@ -5441,7 +5591,9 @@
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="s">
+        <v>525</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
       </c>
@@ -5480,7 +5632,9 @@
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="s">
+        <v>525</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
       </c>
@@ -5519,7 +5673,9 @@
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="s">
+        <v>525</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>0</v>
       </c>
@@ -5558,7 +5714,9 @@
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="s">
+        <v>525</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>0</v>
       </c>
@@ -5597,7 +5755,9 @@
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="s">
+        <v>525</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5796,9 @@
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="s">
+        <v>525</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>0</v>
       </c>
@@ -5675,7 +5837,9 @@
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B91"/>
+      <c r="B91" t="s">
+        <v>525</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>0</v>
       </c>
@@ -5714,7 +5878,9 @@
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B92"/>
+      <c r="B92" t="s">
+        <v>525</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +5919,9 @@
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B93"/>
+      <c r="B93" t="s">
+        <v>525</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>0</v>
       </c>
@@ -5792,7 +5960,9 @@
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B94"/>
+      <c r="B94" t="s">
+        <v>525</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +6001,9 @@
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B95"/>
+      <c r="B95" t="s">
+        <v>525</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>0</v>
       </c>
@@ -5870,7 +6042,9 @@
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B96"/>
+      <c r="B96" t="s">
+        <v>525</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>0</v>
       </c>
@@ -5909,7 +6083,9 @@
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B97"/>
+      <c r="B97" t="s">
+        <v>525</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>0</v>
       </c>
@@ -5948,7 +6124,9 @@
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="s">
+        <v>525</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>0</v>
       </c>
@@ -5987,7 +6165,9 @@
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B99"/>
+      <c r="B99" t="s">
+        <v>525</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>0</v>
       </c>
@@ -6026,7 +6206,9 @@
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B100"/>
+      <c r="B100" t="s">
+        <v>525</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>0</v>
       </c>
@@ -6065,7 +6247,9 @@
       <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B101"/>
+      <c r="B101" t="s">
+        <v>525</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>0</v>
       </c>
@@ -6104,7 +6288,9 @@
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B102"/>
+      <c r="B102" t="s">
+        <v>525</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>0</v>
       </c>
@@ -6143,7 +6329,9 @@
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B103"/>
+      <c r="B103" t="s">
+        <v>525</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>0</v>
       </c>
@@ -6182,7 +6370,9 @@
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B104"/>
+      <c r="B104" t="s">
+        <v>525</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>0</v>
       </c>
@@ -6221,7 +6411,9 @@
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B105"/>
+      <c r="B105" t="s">
+        <v>525</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>0</v>
       </c>
@@ -6260,7 +6452,9 @@
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B106"/>
+      <c r="B106" t="s">
+        <v>525</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>0</v>
       </c>
@@ -6299,7 +6493,9 @@
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B107"/>
+      <c r="B107" t="s">
+        <v>525</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>0</v>
       </c>
@@ -6338,7 +6534,9 @@
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B108"/>
+      <c r="B108" t="s">
+        <v>525</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>0</v>
       </c>
@@ -6377,7 +6575,9 @@
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B109"/>
+      <c r="B109" t="s">
+        <v>525</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>0</v>
       </c>
@@ -6416,7 +6616,9 @@
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B110"/>
+      <c r="B110" t="s">
+        <v>525</v>
+      </c>
       <c r="C110" s="1" t="s">
         <v>0</v>
       </c>
@@ -6455,7 +6657,9 @@
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B111"/>
+      <c r="B111" t="s">
+        <v>525</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>0</v>
       </c>
@@ -6494,7 +6698,9 @@
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B112"/>
+      <c r="B112" t="s">
+        <v>525</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>0</v>
       </c>
@@ -6533,7 +6739,9 @@
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B113"/>
+      <c r="B113" t="s">
+        <v>525</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>0</v>
       </c>
@@ -6572,7 +6780,9 @@
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B114"/>
+      <c r="B114" t="s">
+        <v>525</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>0</v>
       </c>
@@ -6611,7 +6821,9 @@
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B115"/>
+      <c r="B115" t="s">
+        <v>525</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>0</v>
       </c>
@@ -6650,7 +6862,9 @@
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B116"/>
+      <c r="B116" t="s">
+        <v>525</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>0</v>
       </c>
@@ -6689,7 +6903,9 @@
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B117"/>
+      <c r="B117" t="s">
+        <v>525</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>0</v>
       </c>
@@ -6728,7 +6944,9 @@
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B118"/>
+      <c r="B118" t="s">
+        <v>525</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>0</v>
       </c>
@@ -6767,7 +6985,9 @@
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B119"/>
+      <c r="B119" t="s">
+        <v>525</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>0</v>
       </c>
@@ -6806,7 +7026,9 @@
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B120"/>
+      <c r="B120" t="s">
+        <v>525</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>0</v>
       </c>
@@ -6845,7 +7067,9 @@
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B121"/>
+      <c r="B121" t="s">
+        <v>525</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>0</v>
       </c>
@@ -6884,7 +7108,9 @@
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B122"/>
+      <c r="B122" t="s">
+        <v>525</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>33</v>
       </c>
@@ -6923,7 +7149,9 @@
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B123"/>
+      <c r="B123" t="s">
+        <v>525</v>
+      </c>
       <c r="C123" s="1" t="s">
         <v>0</v>
       </c>
@@ -6962,7 +7190,9 @@
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B124"/>
+      <c r="B124" t="s">
+        <v>525</v>
+      </c>
       <c r="C124" s="1" t="s">
         <v>0</v>
       </c>
@@ -7001,7 +7231,9 @@
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B125"/>
+      <c r="B125" t="s">
+        <v>525</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>0</v>
       </c>
@@ -7079,7 +7311,9 @@
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B127"/>
+      <c r="B127" t="s">
+        <v>525</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>0</v>
       </c>
@@ -7118,7 +7352,9 @@
       <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B128"/>
+      <c r="B128" t="s">
+        <v>525</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>0</v>
       </c>
@@ -7157,7 +7393,9 @@
       <c r="A129" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B129"/>
+      <c r="B129" t="s">
+        <v>525</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>0</v>
       </c>
@@ -7196,7 +7434,9 @@
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B130"/>
+      <c r="B130" t="s">
+        <v>525</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>0</v>
       </c>
@@ -7235,7 +7475,9 @@
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B131"/>
+      <c r="B131" t="s">
+        <v>525</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>0</v>
       </c>
@@ -7274,7 +7516,9 @@
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B132"/>
+      <c r="B132" t="s">
+        <v>240</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>0</v>
       </c>
@@ -7313,7 +7557,9 @@
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B133"/>
+      <c r="B133" t="s">
+        <v>525</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>0</v>
       </c>
@@ -7352,7 +7598,9 @@
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B134"/>
+      <c r="B134" t="s">
+        <v>525</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>0</v>
       </c>
@@ -7391,7 +7639,9 @@
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B135"/>
+      <c r="B135" t="s">
+        <v>525</v>
+      </c>
       <c r="C135" s="1" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7680,9 @@
       <c r="A136" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B136"/>
+      <c r="B136" t="s">
+        <v>525</v>
+      </c>
       <c r="C136" s="1" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7721,9 @@
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B137"/>
+      <c r="B137" t="s">
+        <v>525</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>33</v>
       </c>
@@ -7508,7 +7762,9 @@
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B138"/>
+      <c r="B138" t="s">
+        <v>525</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>0</v>
       </c>
@@ -7547,7 +7803,9 @@
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B139"/>
+      <c r="B139" t="s">
+        <v>525</v>
+      </c>
       <c r="C139" s="1" t="s">
         <v>0</v>
       </c>
@@ -7586,7 +7844,9 @@
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B140"/>
+      <c r="B140" t="s">
+        <v>527</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>0</v>
       </c>
@@ -7628,7 +7888,9 @@
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B141"/>
+      <c r="B141" t="s">
+        <v>525</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>0</v>
       </c>
